--- a/results/I2_N10_T30_C325_0_P5_res.xlsx
+++ b/results/I2_N10_T30_C325_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.6474223937851</v>
+        <v>181.9610138849955</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01900005340576172</v>
+        <v>0.0149998664855957</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>32.48101388499555</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>104.2899999999994</v>
+        <v>149.48</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20.60033324079178</v>
+        <v>22.61192465059683</v>
       </c>
     </row>
     <row r="4">
@@ -1011,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.34885527085025</v>
+        <v>24.16886835983306</v>
       </c>
     </row>
     <row r="6">
@@ -1027,7 +1027,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.71579249669673</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>23.82001308898281</v>
       </c>
     </row>
     <row r="9">
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>22.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1067,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.66758337047728</v>
+        <v>27.87444125446785</v>
       </c>
     </row>
     <row r="14">
@@ -1091,7 +1091,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.90090852477161</v>
+        <v>26.48759645946009</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>246.6849999999993</v>
+        <v>250.9699999999993</v>
       </c>
     </row>
     <row r="8">
@@ -1259,7 +1259,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>254.3</v>
+        <v>260.9899999999993</v>
       </c>
     </row>
     <row r="9">
@@ -1270,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>249.2199999999993</v>
+        <v>252.9749999999993</v>
       </c>
     </row>
     <row r="10">
@@ -1281,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>264.2749999999991</v>
+        <v>269.58</v>
       </c>
     </row>
     <row r="11">
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>248.0149999999997</v>
+        <v>250.5749999999993</v>
       </c>
     </row>
     <row r="12">
@@ -1303,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>328.16</v>
+        <v>332.445</v>
       </c>
     </row>
     <row r="13">
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>334.9799999999996</v>
+        <v>341.67</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1325,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>333.935</v>
+        <v>337.69</v>
       </c>
     </row>
     <row r="15">
@@ -1336,7 +1336,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>344.7099999999998</v>
+        <v>350.0150000000007</v>
       </c>
     </row>
     <row r="16">
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>335.3600000000005</v>
+        <v>337.92</v>
       </c>
     </row>
     <row r="17">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="18">
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="20">
@@ -1391,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="21">
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="22">
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999996</v>
+        <v>69.88000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5</v>
+        <v>76.32000000000022</v>
       </c>
     </row>
     <row r="29">
@@ -1490,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>72.41000000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1501,7 +1501,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1</v>
+        <v>72.64500000000022</v>
       </c>
     </row>
     <row r="31">
@@ -1512,7 +1512,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999997</v>
+        <v>72.89000000000021</v>
       </c>
     </row>
     <row r="32">
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>177.26</v>
       </c>
     </row>
     <row r="33">
@@ -1534,7 +1534,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>188.5600000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>166.2</v>
       </c>
     </row>
     <row r="35">
@@ -1556,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>181.48</v>
       </c>
     </row>
     <row r="36">
@@ -1567,7 +1567,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>167.6700000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1578,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>136.7399999999985</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1589,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>136.7099999999981</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1600,7 +1600,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>135.95</v>
+        <v>139.7050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>145.1199999999982</v>
+        <v>150.4249999999992</v>
       </c>
     </row>
     <row r="41">
@@ -1622,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>132.209999999999</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.214999999999</v>
+        <v>159.2149999999989</v>
       </c>
     </row>
     <row r="44">
@@ -1677,7 +1677,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.744999999999</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999995</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1743,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>53.6649999999976</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1754,7 +1754,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>51.98999999999722</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1765,7 +1765,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>57.97499999999761</v>
+        <v>61.72999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1776,7 +1776,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>55.35</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1787,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>50.35499999999806</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1809,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1820,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1831,7 +1831,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1842,7 +1842,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="62">
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>328.16</v>
+        <v>332.445</v>
       </c>
     </row>
     <row r="63">
@@ -1864,7 +1864,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>334.9799999999996</v>
+        <v>341.67</v>
       </c>
     </row>
     <row r="64">
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>333.935</v>
+        <v>337.69</v>
       </c>
     </row>
     <row r="65">
@@ -1886,7 +1886,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>344.7099999999998</v>
+        <v>350.0150000000007</v>
       </c>
     </row>
     <row r="66">
@@ -1897,7 +1897,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>335.3600000000005</v>
+        <v>337.92</v>
       </c>
     </row>
     <row r="67">
@@ -1908,7 +1908,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>295.9199999999996</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="68">
@@ -1919,7 +1919,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>323.5</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="69">
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>294.2649999999996</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="70">
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>311.1</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="71">
@@ -1952,7 +1952,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>297.3649999999997</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>3.16</v>
+        <v>7.445</v>
       </c>
     </row>
     <row r="8">
@@ -2065,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>9.979999999999544</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="9">
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.934999999999979</v>
+        <v>12.69</v>
       </c>
     </row>
     <row r="10">
@@ -2087,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.70999999999978</v>
+        <v>25.015</v>
       </c>
     </row>
     <row r="11">
@@ -2098,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>10.3600000000004</v>
+        <v>12.92</v>
       </c>
     </row>
     <row r="12">
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2706,7 +2706,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2717,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2728,7 +2728,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>5.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2739,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
